--- a/data/Analyse11.xlsx
+++ b/data/Analyse11.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
   <si>
     <t xml:space="preserve">Jahr</t>
   </si>
@@ -220,19 +220,58 @@
     <t xml:space="preserve">SM Winterthur F 29.6</t>
   </si>
   <si>
+    <t xml:space="preserve">Bern 31.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basel 09.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lahti 11.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.64/Sturz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meilen 14.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meilen 15.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorra H 29.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorra F 31.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaja</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lars</t>
   </si>
   <si>
-    <t xml:space="preserve">Luzern 17.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lausanne 27.7</t>
+    <t xml:space="preserve">Lorenzo</t>
   </si>
   <si>
     <t xml:space="preserve">Michele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
 </sst>
 </file>
@@ -323,7 +362,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -350,18 +389,6 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -553,10 +580,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AN1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N43" activeCellId="0" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3821,185 +3848,185 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B27" s="7" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="8" t="n">
-        <v>22</v>
-      </c>
-      <c r="E27" s="9" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="F27" s="9" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="G27" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="H27" s="9" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="I27" s="9" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="J27" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="K27" s="9" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="L27" s="9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="M27" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="N27" s="9" t="n">
-        <v>18.46</v>
-      </c>
-      <c r="O27" s="9" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="P27" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q27" s="9" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="R27" s="9" t="n">
-        <v>24.54</v>
-      </c>
-      <c r="S27" s="9" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="T27" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="U27" s="9" t="n">
-        <v>27.23</v>
-      </c>
-      <c r="V27" s="9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="W27" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="X27" s="9" t="n">
-        <v>31.93</v>
-      </c>
-      <c r="Y27" s="9" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="Z27" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA27" s="9" t="n">
-        <v>36.75</v>
-      </c>
-      <c r="AB27" s="9" t="n">
+      <c r="D27" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="T27" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="U27" s="1" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="V27" s="1" t="n">
         <v>5.06</v>
       </c>
-      <c r="AC27" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD27" s="9" t="n">
-        <v>41.81</v>
-      </c>
-      <c r="AE27" s="9" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="AF27" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG27" s="9" t="n">
-        <v>46.93</v>
-      </c>
-      <c r="AH27" s="9" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="AI27" s="9" t="n">
-        <v>52.66</v>
-      </c>
-      <c r="AJ27" s="9" t="n">
-        <v>24.54</v>
-      </c>
-      <c r="AK27" s="9" t="n">
-        <v>28.12</v>
-      </c>
-      <c r="AL27" s="9" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="AM27" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN27" s="8" t="n">
-        <v>7</v>
+      <c r="W27" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="X27" s="1" t="n">
+        <v>34.74</v>
+      </c>
+      <c r="Y27" s="1" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="Z27" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA27" s="1" t="n">
+        <v>39.98</v>
+      </c>
+      <c r="AB27" s="1" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="AC27" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD27" s="1" t="n">
+        <v>45.37</v>
+      </c>
+      <c r="AE27" s="1" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AF27" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG27" s="1" t="n">
+        <v>50.96</v>
+      </c>
+      <c r="AH27" s="1" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="AI27" s="1" t="n">
+        <v>57.35</v>
+      </c>
+      <c r="AJ27" s="1" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="AK27" s="1" t="n">
+        <v>30.56</v>
+      </c>
+      <c r="AL27" s="1" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AM27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>6.67</v>
+        <v>6.66</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>4.3</v>
+        <v>4.29</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>10.97</v>
+        <v>10.95</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>4.38</v>
+        <v>4.41</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>15.35</v>
+        <v>15.36</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>4.42</v>
+        <v>4.47</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>19.77</v>
+        <v>19.83</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>4.56</v>
+        <v>4.63</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>24.33</v>
+        <v>24.46</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>26.29</v>
+        <v>26.36</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>4.89</v>
+        <v>4.76</v>
       </c>
       <c r="T28" s="1" t="n">
         <v>16</v>
@@ -4008,185 +4035,1864 @@
         <v>29.22</v>
       </c>
       <c r="V28" s="1" t="n">
-        <v>5.15</v>
+        <v>4.94</v>
       </c>
       <c r="W28" s="1" t="n">
         <v>16</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>34.37</v>
+        <v>34.16</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>5.38</v>
+        <v>5.16</v>
       </c>
       <c r="Z28" s="1" t="n">
         <v>17</v>
       </c>
       <c r="AA28" s="1" t="n">
-        <v>39.75</v>
+        <v>39.32</v>
       </c>
       <c r="AB28" s="1" t="n">
-        <v>5.65</v>
+        <v>5.39</v>
       </c>
       <c r="AC28" s="1" t="n">
         <v>17</v>
       </c>
       <c r="AD28" s="1" t="n">
-        <v>45.4</v>
+        <v>44.71</v>
       </c>
       <c r="AE28" s="1" t="n">
-        <v>5.75</v>
+        <v>5.71</v>
       </c>
       <c r="AF28" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG28" s="1" t="n">
-        <v>51.15</v>
+        <v>50.42</v>
       </c>
       <c r="AH28" s="1" t="n">
-        <v>6.22</v>
+        <v>6.51</v>
       </c>
       <c r="AI28" s="1" t="n">
-        <v>57.37</v>
+        <v>56.93</v>
       </c>
       <c r="AJ28" s="1" t="n">
-        <v>26.29</v>
+        <v>26.36</v>
       </c>
       <c r="AK28" s="1" t="n">
-        <v>31.08</v>
+        <v>30.57</v>
       </c>
       <c r="AL28" s="1" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="AM28" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AN28" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O29" s="1" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="R29" s="1" t="n">
+        <v>26.57</v>
+      </c>
+      <c r="S29" s="1" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T29" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="U29" s="1" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="V29" s="1" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="W29" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="X29" s="1" t="n">
+        <v>34.39</v>
+      </c>
+      <c r="Z29" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ29" s="1" t="n">
+        <v>26.57</v>
+      </c>
+      <c r="AK29" s="1" t="n">
+        <v>-26.57</v>
+      </c>
+      <c r="AL29" s="1" t="n">
+        <v>-53.14</v>
+      </c>
+      <c r="AM29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="1" t="n">
+      <c r="AN29" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="P30" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="R30" s="1" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="S30" s="1" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="T30" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="U30" s="1" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="V30" s="1" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="W30" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="X30" s="1" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="Y30" s="1" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Z30" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA30" s="1" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="AB30" s="1" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="AC30" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD30" s="1" t="n">
+        <v>44.77</v>
+      </c>
+      <c r="AE30" s="1" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="AF30" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG30" s="1" t="n">
+        <v>50.48</v>
+      </c>
+      <c r="AH30" s="1" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="AI30" s="1" t="n">
+        <v>56.67</v>
+      </c>
+      <c r="AJ30" s="1" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="AK30" s="1" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="AL30" s="1" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AM30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>28.03</v>
+      </c>
+      <c r="R31" s="1" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="S31" s="1" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="T31" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U31" s="1" t="n">
+        <v>33.71</v>
+      </c>
+      <c r="V31" s="1" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="W31" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="X31" s="1" t="n">
+        <v>39.76</v>
+      </c>
+      <c r="Y31" s="1" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="Z31" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA31" s="1" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="AB31" s="1" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="AC31" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD31" s="1" t="n">
+        <v>52.77</v>
+      </c>
+      <c r="AE31" s="1" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="AF31" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG31" s="1" t="n">
+        <v>59.69</v>
+      </c>
+      <c r="AH31" s="1" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI31" s="1" t="n">
+        <v>67.59</v>
+      </c>
+      <c r="AJ31" s="1" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="AK31" s="1" t="n">
+        <v>37.29</v>
+      </c>
+      <c r="AL31" s="1" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="AM31" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN31" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="O32" s="1" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="P32" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="R32" s="1" t="n">
+        <v>32.47</v>
+      </c>
+      <c r="S32" s="1" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="T32" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U32" s="1" t="n">
+        <v>36.08</v>
+      </c>
+      <c r="V32" s="1" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="W32" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="X32" s="1" t="n">
+        <v>42.27</v>
+      </c>
+      <c r="Y32" s="1" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="Z32" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA32" s="1" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="AB32" s="1" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="AC32" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD32" s="1" t="n">
+        <v>55.36</v>
+      </c>
+      <c r="AE32" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF32" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG32" s="1" t="n">
+        <v>62.36</v>
+      </c>
+      <c r="AH32" s="1" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="AI32" s="1" t="n">
+        <v>69.97</v>
+      </c>
+      <c r="AJ32" s="1" t="n">
+        <v>32.47</v>
+      </c>
+      <c r="AK32" s="1" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AL32" s="1" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="AM32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN32" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="O33" s="1" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="P33" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="R33" s="1" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="S33" s="1" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="T33" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U33" s="1" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="V33" s="1" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="W33" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="X33" s="1" t="n">
+        <v>42.27</v>
+      </c>
+      <c r="Y33" s="1" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="Z33" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA33" s="1" t="n">
+        <v>48.63</v>
+      </c>
+      <c r="AB33" s="1" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="AC33" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD33" s="1" t="n">
+        <v>55.11</v>
+      </c>
+      <c r="AE33" s="1" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="AF33" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG33" s="1" t="n">
+        <v>61.95</v>
+      </c>
+      <c r="AH33" s="1" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AI33" s="1" t="n">
+        <v>70.55</v>
+      </c>
+      <c r="AJ33" s="1" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="AK33" s="1" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="AL33" s="1" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="AM33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN33" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="R34" s="1" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="S34" s="1" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="T34" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U34" s="1" t="n">
+        <v>35.43</v>
+      </c>
+      <c r="V34" s="1" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="W34" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="X34" s="1" t="n">
+        <v>41.58</v>
+      </c>
+      <c r="Y34" s="1" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z34" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA34" s="1" t="n">
+        <v>47.78</v>
+      </c>
+      <c r="AB34" s="1" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="AC34" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD34" s="1" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="AE34" s="1" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="AF34" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG34" s="1" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="AH34" s="1" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AI34" s="1" t="n">
+        <v>67.55</v>
+      </c>
+      <c r="AJ34" s="1" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="AK34" s="1" t="n">
+        <v>35.67</v>
+      </c>
+      <c r="AL34" s="1" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AM34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN34" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E29" s="1" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="G29" s="1" t="n">
+      <c r="E35" s="1" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="R35" s="1" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T35" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="U35" s="1" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="V35" s="1" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="W35" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="X35" s="1" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="Y35" s="1" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="Z35" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA35" s="1" t="n">
+        <v>36.78</v>
+      </c>
+      <c r="AB35" s="1" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="AC35" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD35" s="1" t="n">
+        <v>41.74</v>
+      </c>
+      <c r="AE35" s="1" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="AF35" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG35" s="1" t="n">
+        <v>47.27</v>
+      </c>
+      <c r="AH35" s="1" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="AI35" s="1" t="n">
+        <v>53.86</v>
+      </c>
+      <c r="AJ35" s="1" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="AK35" s="1" t="n">
+        <v>29.34</v>
+      </c>
+      <c r="AL35" s="1" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="AM35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN35" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="P36" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="R36" s="1" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="S36" s="1" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="T36" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>27.14</v>
+      </c>
+      <c r="V36" s="1" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="W36" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="X36" s="1" t="n">
+        <v>31.62</v>
+      </c>
+      <c r="Y36" s="1" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="Z36" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="H29" s="1" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="I29" s="1" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="J29" s="1" t="n">
+      <c r="AA36" s="1" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="AB36" s="1" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="AC36" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="K29" s="1" t="n">
-        <v>14.86</v>
-      </c>
-      <c r="L29" s="1" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="M29" s="1" t="n">
+      <c r="AD36" s="1" t="n">
+        <v>41.38</v>
+      </c>
+      <c r="AE36" s="1" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF36" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG36" s="1" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="AH36" s="1" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="AI36" s="1" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="AJ36" s="1" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="AK36" s="1" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="AL36" s="1" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AM36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN36" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="G37" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="N29" s="1" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="O29" s="1" t="n">
+      <c r="H37" s="1" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="O37" s="1" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="P37" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="R37" s="1" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="S37" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="U37" s="1" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="V37" s="1" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="W37" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="X37" s="1" t="n">
+        <v>35.95</v>
+      </c>
+      <c r="Y37" s="1" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="Z37" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA37" s="1" t="n">
+        <v>41.49</v>
+      </c>
+      <c r="AB37" s="1" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="AC37" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD37" s="1" t="n">
+        <v>47.31</v>
+      </c>
+      <c r="AE37" s="1" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="AF37" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG37" s="1" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="AH37" s="1" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="AI37" s="1" t="n">
+        <v>60.03</v>
+      </c>
+      <c r="AJ37" s="1" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="AK37" s="1" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="AL37" s="1" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="AM37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN37" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M38" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="P38" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="R38" s="1" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="S38" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T38" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="U38" s="1" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="V38" s="1" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="W38" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="X38" s="1" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="Y38" s="1" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="Z38" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA38" s="1" t="n">
+        <v>36.63</v>
+      </c>
+      <c r="AB38" s="1" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="AC38" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD38" s="1" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="AE38" s="1" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="AF38" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG38" s="1" t="n">
+        <v>46.92</v>
+      </c>
+      <c r="AH38" s="1" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="AI38" s="1" t="n">
+        <v>52.75</v>
+      </c>
+      <c r="AJ38" s="1" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="AK38" s="1" t="n">
+        <v>28.28</v>
+      </c>
+      <c r="AL38" s="1" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AM38" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN38" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="O39" s="1" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="P39" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="R39" s="1" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="S39" s="1" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="T39" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="U39" s="1" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="V39" s="1" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="W39" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="X39" s="1" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="Y39" s="1" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="Z39" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA39" s="1" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="AB39" s="1" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="AC39" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD39" s="1" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="AE39" s="1" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF39" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG39" s="1" t="n">
+        <v>47.15</v>
+      </c>
+      <c r="AH39" s="1" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="AI39" s="1" t="n">
+        <v>52.86</v>
+      </c>
+      <c r="AJ39" s="1" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="AK39" s="1" t="n">
+        <v>28.36</v>
+      </c>
+      <c r="AL39" s="1" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AM39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN39" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M40" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="O40" s="1" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="P40" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q40" s="1" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="R40" s="1" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="S40" s="1" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="T40" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="U40" s="1" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="V40" s="1" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="W40" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="X40" s="1" t="n">
+        <v>31.91</v>
+      </c>
+      <c r="Y40" s="1" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="Z40" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA40" s="1" t="n">
+        <v>36.65</v>
+      </c>
+      <c r="AB40" s="1" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="AC40" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD40" s="1" t="n">
+        <v>41.53</v>
+      </c>
+      <c r="AE40" s="1" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AF40" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG40" s="1" t="n">
+        <v>46.58</v>
+      </c>
+      <c r="AH40" s="1" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="AI40" s="1" t="n">
+        <v>52.36</v>
+      </c>
+      <c r="AJ40" s="1" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="AK40" s="1" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="AL40" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AM40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN40" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="M41" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="N41" s="1" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="O41" s="1" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="P41" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="R41" s="1" t="n">
+        <v>26.06</v>
+      </c>
+      <c r="S41" s="1" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="T41" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="U41" s="1" t="n">
+        <v>28.93</v>
+      </c>
+      <c r="V41" s="1" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="W41" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="X41" s="1" t="n">
+        <v>33.94</v>
+      </c>
+      <c r="Y41" s="1" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Z41" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA41" s="1" t="n">
+        <v>39.04</v>
+      </c>
+      <c r="AB41" s="1" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AC41" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD41" s="1" t="n">
+        <v>44.26</v>
+      </c>
+      <c r="AE41" s="1" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF41" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG41" s="1" t="n">
+        <v>49.51</v>
+      </c>
+      <c r="AH41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI41" s="1" t="n">
+        <v>55.51</v>
+      </c>
+      <c r="AJ41" s="1" t="n">
+        <v>26.06</v>
+      </c>
+      <c r="AK41" s="1" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="AL41" s="1" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AM41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M42" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="O42" s="1" t="n">
         <v>4.49</v>
       </c>
-      <c r="P29" s="1" t="n">
+      <c r="P42" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="Q29" s="1" t="n">
-        <v>23.66</v>
-      </c>
-      <c r="R29" s="1" t="n">
-        <v>25.52</v>
-      </c>
-      <c r="S29" s="1" t="n">
+      <c r="Q42" s="1" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="R42" s="1" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="S42" s="1" t="n">
         <v>4.66</v>
       </c>
-      <c r="T29" s="1" t="n">
+      <c r="T42" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="U29" s="1" t="n">
-        <v>28.32</v>
-      </c>
-      <c r="V29" s="1" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="W29" s="1" t="n">
+      <c r="U42" s="1" t="n">
+        <v>28.48</v>
+      </c>
+      <c r="V42" s="1" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W42" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="X29" s="1" t="n">
-        <v>33.15</v>
-      </c>
-      <c r="Y29" s="1" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="Z29" s="1" t="n">
+      <c r="X42" s="1" t="n">
+        <v>33.28</v>
+      </c>
+      <c r="Y42" s="1" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="Z42" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AA29" s="1" t="n">
-        <v>38.06</v>
-      </c>
-      <c r="AB29" s="1" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="AC29" s="1" t="n">
+      <c r="AA42" s="1" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="AB42" s="1" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="AC42" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AD29" s="1" t="n">
-        <v>43.15</v>
-      </c>
-      <c r="AE29" s="1" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="AF29" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG29" s="1" t="n">
-        <v>48.46</v>
-      </c>
-      <c r="AH29" s="1" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="AI29" s="1" t="n">
-        <v>54.43</v>
-      </c>
-      <c r="AJ29" s="1" t="n">
-        <v>25.52</v>
-      </c>
-      <c r="AK29" s="1" t="n">
-        <v>28.91</v>
-      </c>
-      <c r="AL29" s="1" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AM29" s="1" t="n">
+      <c r="AD42" s="1" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="AE42" s="1" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF42" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG42" s="1" t="n">
+        <v>48.62</v>
+      </c>
+      <c r="AH42" s="1" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="AI42" s="1" t="n">
+        <v>54.94</v>
+      </c>
+      <c r="AJ42" s="1" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="AK42" s="1" t="n">
+        <v>29.26</v>
+      </c>
+      <c r="AL42" s="1" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AM42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AN29" s="1" t="n">
-        <v>7</v>
-      </c>
     </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="M43" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P43" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="R43" s="1" t="n">
+        <v>32.41</v>
+      </c>
+      <c r="S43" s="1" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="T43" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="U43" s="1" t="n">
+        <v>36.05</v>
+      </c>
+      <c r="V43" s="1" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="W43" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="X43" s="1" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="Y43" s="1" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Z43" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA43" s="1" t="n">
+        <v>48.74</v>
+      </c>
+      <c r="AB43" s="1" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="AC43" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD43" s="1" t="n">
+        <v>55.65</v>
+      </c>
+      <c r="AE43" s="1" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="AF43" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG43" s="1" t="n">
+        <v>62.99</v>
+      </c>
+      <c r="AH43" s="1" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI43" s="1" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="AJ43" s="1" t="n">
+        <v>32.41</v>
+      </c>
+      <c r="AK43" s="1" t="n">
+        <v>38.48</v>
+      </c>
+      <c r="AL43" s="1" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="AM43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN43" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511805555555556"/>
